--- a/RequirementsTemplate.xlsx
+++ b/RequirementsTemplate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 6\Software Engineering\Milestone 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 6\Software Engineering\Milestone 1\Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="15" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="436">
   <si>
     <t>Module</t>
   </si>
@@ -1330,6 +1330,33 @@
   </si>
   <si>
     <t>Mobile App</t>
+  </si>
+  <si>
+    <t>18,19,16</t>
+  </si>
+  <si>
+    <t>18,19,17</t>
+  </si>
+  <si>
+    <t>18,19,18</t>
+  </si>
+  <si>
+    <t>I want to be able to rate the delivery person</t>
+  </si>
+  <si>
+    <t>To provide review of his service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to be able to send messages to Donation Receivers </t>
+  </si>
+  <si>
+    <t>I can communicate with them directly</t>
+  </si>
+  <si>
+    <t>I want to be able to invite users to the platform</t>
+  </si>
+  <si>
+    <t>I can share the platform with as many people as possible</t>
   </si>
 </sst>
 </file>
@@ -1777,6 +1804,13 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1787,13 +1821,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2013,7 +2040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2024,38 +2051,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="70" t="s">
         <v>353</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="74" t="s">
         <v>354</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
@@ -2134,7 +2161,7 @@
       <c r="B11" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="67" t="s">
         <v>373</v>
       </c>
       <c r="D11" s="62">
@@ -2279,10 +2306,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3216,7 +3243,7 @@
       <c r="F39" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="54" t="s">
         <v>32</v>
       </c>
       <c r="H39" s="5"/>
@@ -5838,6 +5865,75 @@
         <v>328</v>
       </c>
       <c r="G149" s="54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="B150" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="C150" s="13">
+        <v>148</v>
+      </c>
+      <c r="D150" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E150" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="F150" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="G150" s="54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="C151" s="13">
+        <v>149</v>
+      </c>
+      <c r="D151" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E151" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="F151" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="G151" s="54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A152" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="C152" s="13">
+        <v>150</v>
+      </c>
+      <c r="D152" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E152" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="F152" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="G152" s="54" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5848,10 +5944,10 @@
     <sortCondition ref="D3:D149"/>
   </sortState>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G39:G41 G19:G20 G13:G17 G29:G37 H3:H24 G137 G43:G135">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G43:G135 G19:G20 G13:G17 G29:G37 H3:H24 G137 G40:G41">
       <formula1>"Mobile App,Online Banking Website,Both"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D19 D38:D41 D137:D149 D28:D31 D43:D67 D70:D135 D1:D17">
+    <dataValidation type="list" allowBlank="1" sqref="D19 D38:D41 D1:D17 D28:D31 D43:D67 D70:D135 D137:D151">
       <formula1>"client,banker,admin,client/banker,banker/admin,client/admin,client/banker/admin"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5878,19 +5974,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="69" t="s">
         <v>355</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="69" t="s">
         <v>374</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="69" t="s">
         <v>375</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="68" t="s">
         <v>376</v>
       </c>
     </row>
